--- a/抽奖概率表.xlsx
+++ b/抽奖概率表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B55D7C-8F6A-6E42-B7E6-CF73AEC03116}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4417BB-D00F-FF42-9EB7-1BA440EED601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B59E1FD4-D0A5-6349-B4CD-4B757BB24FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prob" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -479,7 +480,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
